--- a/Lab01/03_PizzaShop/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Lab01/03_PizzaShop/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE1A72E-5E8B-4EA7-A7A3-4BDBFF67233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B629C08-CDDB-4B7D-A7A6-1CFBB844A642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-735" yWindow="1230" windowWidth="17400" windowHeight="18675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -1567,6 +1567,87 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1577,53 +1658,179 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1639,12 +1846,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1660,9 +1861,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1674,209 +1872,11 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2044,6 +2044,61 @@
         <a:xfrm>
           <a:off x="4795346" y="1694793"/>
           <a:ext cx="4553329" cy="3370385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>305049</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>99609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>776082</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF573AC7-1882-7497-CBDC-7B3566C21239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11193431" y="99609"/>
+          <a:ext cx="471033" cy="248204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2351,25 +2406,25 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" customWidth="1"/>
+    <col min="15" max="15" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B1" s="9"/>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B2" s="26"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
@@ -2379,7 +2434,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
@@ -2389,7 +2444,7 @@
       <c r="O5" s="23"/>
       <c r="P5" s="23"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2401,7 +2456,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2416,7 +2471,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2431,7 +2486,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2445,25 +2500,25 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
@@ -2483,359 +2538,366 @@
   </sheetPr>
   <dimension ref="B1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
-    <col min="20" max="20" width="28.28515625" customWidth="1"/>
-    <col min="21" max="21" width="55.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.7265625" customWidth="1"/>
+    <col min="20" max="20" width="28.26953125" customWidth="1"/>
+    <col min="21" max="21" width="55.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B1" s="9"/>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B3" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B6" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="Q6" s="38" t="s">
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="Q6" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="I8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="Q8" s="43" t="s">
+      <c r="Q8" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
       <c r="T8" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="I9" s="25"/>
-      <c r="Q9" s="43" t="s">
+      <c r="Q9" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="85"/>
       <c r="T9" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49"/>
-      <c r="Q10" s="43" t="s">
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="78"/>
+      <c r="Q10" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="43" t="s">
+      <c r="R10" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="43"/>
+      <c r="S10" s="85"/>
       <c r="T10" s="22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I11" s="79"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="81"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I12" s="79"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="81"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="Q13" s="38" t="s">
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="81"/>
+      <c r="Q13" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="52"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="81"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="I15" s="79"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="81"/>
       <c r="Q15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="56" t="s">
+      <c r="R15" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="52"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="I16" s="79"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="81"/>
       <c r="Q16" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="R16" s="41" t="s">
+      <c r="R16" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-    </row>
-    <row r="17" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="52"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+    </row>
+    <row r="17" spans="9:21" x14ac:dyDescent="0.35">
+      <c r="I17" s="79"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="81"/>
       <c r="Q17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="R17" s="41" t="s">
+      <c r="R17" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-    </row>
-    <row r="18" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="52"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+    </row>
+    <row r="18" spans="9:21" x14ac:dyDescent="0.35">
+      <c r="I18" s="79"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="81"/>
       <c r="Q18" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="41" t="s">
+      <c r="R18" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-    </row>
-    <row r="19" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="52"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+    </row>
+    <row r="19" spans="9:21" x14ac:dyDescent="0.35">
+      <c r="I19" s="79"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="81"/>
       <c r="Q19" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="R19" s="41" t="s">
+      <c r="R19" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-    </row>
-    <row r="20" spans="9:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="52"/>
-      <c r="Q20" s="97" t="s">
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+    </row>
+    <row r="20" spans="9:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="I20" s="79"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="81"/>
+      <c r="Q20" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="R20" s="98" t="s">
+      <c r="R20" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="96" t="s">
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="38" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="52"/>
-    </row>
-    <row r="22" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="52"/>
-    </row>
-    <row r="23" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
+    <row r="21" spans="9:21" x14ac:dyDescent="0.35">
+      <c r="I21" s="79"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="81"/>
+    </row>
+    <row r="22" spans="9:21" x14ac:dyDescent="0.35">
+      <c r="I22" s="79"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="81"/>
+    </row>
+    <row r="23" spans="9:21" x14ac:dyDescent="0.35">
+      <c r="I23" s="82"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R19:T19"/>
@@ -2852,13 +2914,6 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2878,175 +2933,175 @@
       <selection activeCell="B10" sqref="B10:T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="29"/>
-    <col min="2" max="2" width="12.28515625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="29" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="29" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="29" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="29" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="29" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="29" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="29" customWidth="1"/>
-    <col min="17" max="19" width="8.85546875" style="29"/>
-    <col min="20" max="20" width="4.140625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="29"/>
+    <col min="2" max="2" width="12.26953125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" style="29" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" style="29" customWidth="1"/>
+    <col min="13" max="13" width="13.7265625" style="29" customWidth="1"/>
+    <col min="14" max="14" width="16.1796875" style="29" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" style="29" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" style="29" customWidth="1"/>
+    <col min="17" max="19" width="8.81640625" style="29"/>
+    <col min="20" max="20" width="4.1796875" style="29" customWidth="1"/>
     <col min="21" max="21" width="4" style="29" customWidth="1"/>
-    <col min="22" max="22" width="3.7109375" style="29" customWidth="1"/>
-    <col min="23" max="23" width="5.42578125" style="29" customWidth="1"/>
-    <col min="24" max="24" width="4.28515625" style="29" customWidth="1"/>
-    <col min="25" max="25" width="4.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.85546875" style="29"/>
+    <col min="22" max="22" width="3.7265625" style="29" customWidth="1"/>
+    <col min="23" max="23" width="5.453125" style="29" customWidth="1"/>
+    <col min="24" max="24" width="4.26953125" style="29" customWidth="1"/>
+    <col min="25" max="25" width="4.1796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.26953125" style="29" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.81640625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="103"/>
-    </row>
-    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+    </row>
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="136"/>
-    </row>
-    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
+    </row>
+    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="121" t="s">
+    <row r="6" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="124" t="s">
+      <c r="D6" s="88"/>
+      <c r="E6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="125" t="s">
+      <c r="F6" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="127"/>
-    </row>
-    <row r="7" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="128"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="107" t="s">
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="93"/>
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="94"/>
+    </row>
+    <row r="7" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="56"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="108" t="s">
+      <c r="G7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="113" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="111" t="s">
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="U7" s="112"/>
-      <c r="V7" s="112"/>
-      <c r="W7" s="112"/>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="129"/>
-    </row>
-    <row r="8" spans="2:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="128"/>
-      <c r="C8" s="99" t="s">
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="99"/>
+    </row>
+    <row r="8" spans="2:26" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="56"/>
+      <c r="C8" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="107"/>
-      <c r="G8" s="108" t="s">
+      <c r="F8" s="48"/>
+      <c r="G8" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="109"/>
-      <c r="I8" s="108" t="s">
+      <c r="H8" s="90"/>
+      <c r="I8" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="109"/>
-      <c r="K8" s="108" t="s">
+      <c r="J8" s="90"/>
+      <c r="K8" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="L8" s="109"/>
-      <c r="M8" s="108" t="s">
+      <c r="L8" s="90"/>
+      <c r="M8" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="109"/>
-      <c r="O8" s="106" t="s">
+      <c r="N8" s="90"/>
+      <c r="O8" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="106" t="s">
+      <c r="P8" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="106" t="s">
+      <c r="Q8" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="R8" s="106" t="s">
+      <c r="R8" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="S8" s="106" t="s">
+      <c r="S8" s="47" t="s">
         <v>78</v>
       </c>
       <c r="T8" s="37">
@@ -3067,99 +3122,99 @@
       <c r="Y8" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="Z8" s="137" t="s">
+      <c r="Z8" s="62" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="130"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="133" t="s">
+    <row r="9" spans="2:26" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="133" t="s">
+      <c r="H9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="133" t="s">
+      <c r="I9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="133" t="s">
+      <c r="J9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="133" t="s">
+      <c r="K9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="133" t="s">
+      <c r="L9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="133" t="s">
+      <c r="M9" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="133" t="s">
+      <c r="N9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="134"/>
-      <c r="P9" s="134"/>
-      <c r="Q9" s="134"/>
-      <c r="R9" s="134"/>
-      <c r="S9" s="134"/>
-      <c r="T9" s="138"/>
-      <c r="U9" s="138"/>
-      <c r="V9" s="138"/>
-      <c r="W9" s="138"/>
-      <c r="X9" s="138"/>
-      <c r="Y9" s="138"/>
-      <c r="Z9" s="139"/>
-    </row>
-    <row r="10" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="116" t="s">
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="64"/>
+    </row>
+    <row r="10" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="117" t="s">
+      <c r="C10" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="117">
+      <c r="E10" s="50">
         <v>0</v>
       </c>
-      <c r="F10" s="118" t="s">
+      <c r="F10" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="G10" s="119" t="s">
+      <c r="G10" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="120" t="s">
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120" t="s">
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="T10" s="140" t="s">
+      <c r="T10" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="U10" s="140"/>
-      <c r="V10" s="140"/>
-      <c r="W10" s="140"/>
-      <c r="X10" s="140"/>
-      <c r="Y10" s="140"/>
-      <c r="Z10" s="140"/>
-    </row>
-    <row r="11" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
+    </row>
+    <row r="11" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B11" s="31" t="s">
         <v>50</v>
       </c>
@@ -3193,20 +3248,20 @@
       </c>
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
-      <c r="S11" s="120" t="s">
+      <c r="S11" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="T11" s="141" t="s">
+      <c r="T11" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="U11" s="141"/>
-      <c r="V11" s="141"/>
-      <c r="W11" s="141"/>
-      <c r="X11" s="141"/>
-      <c r="Y11" s="141"/>
-      <c r="Z11" s="141"/>
-    </row>
-    <row r="12" spans="2:26" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+    </row>
+    <row r="12" spans="2:26" ht="31" x14ac:dyDescent="0.35">
       <c r="B12" s="31" t="s">
         <v>89</v>
       </c>
@@ -3246,22 +3301,22 @@
         <v>95</v>
       </c>
       <c r="R12" s="34"/>
-      <c r="S12" s="120" t="s">
+      <c r="S12" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="T12" s="141"/>
-      <c r="U12" s="141" t="s">
+      <c r="T12" s="66"/>
+      <c r="U12" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="V12" s="141"/>
-      <c r="W12" s="141"/>
-      <c r="X12" s="141" t="s">
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="Y12" s="141"/>
-      <c r="Z12" s="141"/>
-    </row>
-    <row r="13" spans="2:26" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+    </row>
+    <row r="13" spans="2:26" ht="31" x14ac:dyDescent="0.35">
       <c r="B13" s="31" t="s">
         <v>90</v>
       </c>
@@ -3301,22 +3356,22 @@
       <c r="R13" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="S13" s="120" t="s">
+      <c r="S13" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="T13" s="141"/>
-      <c r="U13" s="141" t="s">
+      <c r="T13" s="66"/>
+      <c r="U13" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="V13" s="141"/>
-      <c r="W13" s="141"/>
-      <c r="X13" s="141" t="s">
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="Y13" s="141"/>
-      <c r="Z13" s="141"/>
-    </row>
-    <row r="14" spans="2:26" ht="63" x14ac:dyDescent="0.25">
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+    </row>
+    <row r="14" spans="2:26" ht="62" x14ac:dyDescent="0.35">
       <c r="B14" s="31" t="s">
         <v>91</v>
       </c>
@@ -3358,22 +3413,22 @@
       <c r="R14" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="S14" s="120" t="s">
+      <c r="S14" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="T14" s="141"/>
-      <c r="U14" s="141"/>
-      <c r="V14" s="141" t="s">
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="W14" s="141"/>
-      <c r="X14" s="141" t="s">
+      <c r="W14" s="66"/>
+      <c r="X14" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="Y14" s="141"/>
-      <c r="Z14" s="141"/>
-    </row>
-    <row r="15" spans="2:26" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+    </row>
+    <row r="15" spans="2:26" ht="93" x14ac:dyDescent="0.35">
       <c r="B15" s="31" t="s">
         <v>92</v>
       </c>
@@ -3415,18 +3470,18 @@
       <c r="R15" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="S15" s="120" t="s">
+      <c r="S15" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="T15" s="141"/>
-      <c r="U15" s="141"/>
-      <c r="V15" s="141"/>
-      <c r="W15" s="141"/>
-      <c r="X15" s="141" t="s">
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="Y15" s="141"/>
-      <c r="Z15" s="141"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3454,86 +3509,86 @@
   </sheetPr>
   <dimension ref="B1:N17"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" customWidth="1"/>
+    <col min="6" max="6" width="39.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="12.7265625" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B1" s="9"/>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="86" t="s">
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B4" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="78" t="s">
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="79"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="87"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="80" t="s">
+      <c r="L4" s="111"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="114"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="80" t="s">
+      <c r="F5" s="105"/>
+      <c r="G5" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="142"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="81"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="105"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3541,26 +3596,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>9</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="115" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="94" t="s">
+      <c r="F6" s="108"/>
+      <c r="G6" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="95"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="108"/>
       <c r="K6" s="11">
         <v>0</v>
       </c>
@@ -3568,24 +3623,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="10">
         <v>10</v>
       </c>
-      <c r="C7" s="88"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="78" t="s">
+      <c r="F7" s="111"/>
+      <c r="G7" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="79"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="111"/>
       <c r="K7" s="10">
         <v>0</v>
       </c>
@@ -3593,24 +3648,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
         <v>11</v>
       </c>
-      <c r="C8" s="88"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="78" t="s">
+      <c r="F8" s="111"/>
+      <c r="G8" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="79"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="111"/>
       <c r="K8" s="10">
         <v>0</v>
       </c>
@@ -3618,24 +3673,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
         <v>12</v>
       </c>
-      <c r="C9" s="88"/>
+      <c r="C9" s="115"/>
       <c r="D9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="78" t="s">
+      <c r="F9" s="111"/>
+      <c r="G9" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="79"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="111"/>
       <c r="K9" s="35">
         <v>100</v>
       </c>
@@ -3643,24 +3698,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10">
         <v>13</v>
       </c>
-      <c r="C10" s="88"/>
+      <c r="C10" s="115"/>
       <c r="D10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="80" t="s">
+      <c r="F10" s="105"/>
+      <c r="G10" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="81"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="105"/>
       <c r="K10" s="2">
         <v>150</v>
       </c>
@@ -3668,24 +3723,24 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10">
         <v>14</v>
       </c>
-      <c r="C11" s="89"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="80" t="s">
+      <c r="F11" s="105"/>
+      <c r="G11" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="81"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="105"/>
       <c r="K11" s="2">
         <v>250</v>
       </c>
@@ -3693,7 +3748,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -3706,92 +3761,92 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="74" t="s">
+    <row r="14" spans="2:14" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="76" t="s">
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="74" t="s">
+      <c r="G14" s="143"/>
+      <c r="H14" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="59" t="s">
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="60"/>
-    </row>
-    <row r="15" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="58" t="s">
+      <c r="N14" s="131"/>
+    </row>
+    <row r="15" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="62" t="s">
+      <c r="I15" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="62" t="s">
+      <c r="J15" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="72" t="s">
+      <c r="K15" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="83" t="s">
+      <c r="L15" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="M15" s="57" t="s">
+      <c r="M15" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="N15" s="69" t="s">
+      <c r="N15" s="117" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="61"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="66"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="132"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="129"/>
+      <c r="N16" s="135"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="15">
         <v>6</v>
       </c>
@@ -3834,16 +3889,23 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M14:N14"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:B5"/>
@@ -3856,46 +3918,25 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -4039,24 +4080,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4072,4 +4111,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>